--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tslp-Crlf2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tslp-Crlf2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Crlf2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.01622471393022</v>
+        <v>2.099392</v>
       </c>
       <c r="H2">
-        <v>2.01622471393022</v>
+        <v>4.198784</v>
       </c>
       <c r="I2">
-        <v>0.4540874163415305</v>
+        <v>0.3767652188062087</v>
       </c>
       <c r="J2">
-        <v>0.4540874163415305</v>
+        <v>0.3035604213192941</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.9995196476458</v>
+        <v>6.013510500000001</v>
       </c>
       <c r="N2">
-        <v>5.9995196476458</v>
+        <v>12.027021</v>
       </c>
       <c r="O2">
-        <v>0.1528727376658653</v>
+        <v>0.1516060519857131</v>
       </c>
       <c r="P2">
-        <v>0.1528727376658653</v>
+        <v>0.1075307803750902</v>
       </c>
       <c r="Q2">
-        <v>12.09637978529339</v>
+        <v>12.624715835616</v>
       </c>
       <c r="R2">
-        <v>12.09637978529339</v>
+        <v>50.49886334246401</v>
       </c>
       <c r="S2">
-        <v>0.06941758647574936</v>
+        <v>0.05711988734874265</v>
       </c>
       <c r="T2">
-        <v>0.06941758647574936</v>
+        <v>0.03264208899545486</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.01622471393022</v>
+        <v>2.099392</v>
       </c>
       <c r="H3">
-        <v>2.01622471393022</v>
+        <v>4.198784</v>
       </c>
       <c r="I3">
-        <v>0.4540874163415305</v>
+        <v>0.3767652188062087</v>
       </c>
       <c r="J3">
-        <v>0.4540874163415305</v>
+        <v>0.3035604213192941</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.65964195607662</v>
+        <v>1.733960333333333</v>
       </c>
       <c r="N3">
-        <v>1.65964195607662</v>
+        <v>5.201880999999999</v>
       </c>
       <c r="O3">
-        <v>0.04228905383618864</v>
+        <v>0.04371471213636323</v>
       </c>
       <c r="P3">
-        <v>0.04228905383618864</v>
+        <v>0.04650880075359928</v>
       </c>
       <c r="Q3">
-        <v>3.346211128117174</v>
+        <v>3.640262452117333</v>
       </c>
       <c r="R3">
-        <v>3.346211128117174</v>
+        <v>21.84157471270399</v>
       </c>
       <c r="S3">
-        <v>0.01920292719600279</v>
+        <v>0.01647018308310732</v>
       </c>
       <c r="T3">
-        <v>0.01920292719600279</v>
+        <v>0.0141182311518177</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.01622471393022</v>
+        <v>2.099392</v>
       </c>
       <c r="H4">
-        <v>2.01622471393022</v>
+        <v>4.198784</v>
       </c>
       <c r="I4">
-        <v>0.4540874163415305</v>
+        <v>0.3767652188062087</v>
       </c>
       <c r="J4">
-        <v>0.4540874163415305</v>
+        <v>0.3035604213192941</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.3773468155369</v>
+        <v>11.377631</v>
       </c>
       <c r="N4">
-        <v>11.3773468155369</v>
+        <v>34.132893</v>
       </c>
       <c r="O4">
-        <v>0.2899042352078359</v>
+        <v>0.286840393287791</v>
       </c>
       <c r="P4">
-        <v>0.2899042352078359</v>
+        <v>0.3051742090372548</v>
       </c>
       <c r="Q4">
-        <v>22.93928782844079</v>
+        <v>23.886107500352</v>
       </c>
       <c r="R4">
-        <v>22.93928782844079</v>
+        <v>143.316645002112</v>
       </c>
       <c r="S4">
-        <v>0.1316418651519936</v>
+        <v>0.1080714835395336</v>
       </c>
       <c r="T4">
-        <v>0.1316418651519936</v>
+        <v>0.0926388114711314</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.01622471393022</v>
+        <v>2.099392</v>
       </c>
       <c r="H5">
-        <v>2.01622471393022</v>
+        <v>4.198784</v>
       </c>
       <c r="I5">
-        <v>0.4540874163415305</v>
+        <v>0.3767652188062087</v>
       </c>
       <c r="J5">
-        <v>0.4540874163415305</v>
+        <v>0.3035604213192941</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.0902430194445</v>
+        <v>15.19825166666667</v>
       </c>
       <c r="N5">
-        <v>15.0902430194445</v>
+        <v>45.594755</v>
       </c>
       <c r="O5">
-        <v>0.3845119106045286</v>
+        <v>0.3831617043436804</v>
       </c>
       <c r="P5">
-        <v>0.3845119106045286</v>
+        <v>0.4076520350435111</v>
       </c>
       <c r="Q5">
-        <v>30.42532091501699</v>
+        <v>31.90708796298667</v>
       </c>
       <c r="R5">
-        <v>30.42532091501699</v>
+        <v>191.44252777792</v>
       </c>
       <c r="S5">
-        <v>0.1746020200389559</v>
+        <v>0.1443620033752066</v>
       </c>
       <c r="T5">
-        <v>0.1746020200389559</v>
+        <v>0.1237470235094759</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.01622471393022</v>
+        <v>2.099392</v>
       </c>
       <c r="H6">
-        <v>2.01622471393022</v>
+        <v>4.198784</v>
       </c>
       <c r="I6">
-        <v>0.4540874163415305</v>
+        <v>0.3767652188062087</v>
       </c>
       <c r="J6">
-        <v>0.4540874163415305</v>
+        <v>0.3035604213192941</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.98763676710465</v>
+        <v>4.206652333333333</v>
       </c>
       <c r="N6">
-        <v>3.98763676710465</v>
+        <v>12.619957</v>
       </c>
       <c r="O6">
-        <v>0.1016082928645054</v>
+        <v>0.1060535193766028</v>
       </c>
       <c r="P6">
-        <v>0.1016082928645054</v>
+        <v>0.1128320824009604</v>
       </c>
       <c r="Q6">
-        <v>8.0399718000132</v>
+        <v>8.831412255381334</v>
       </c>
       <c r="R6">
-        <v>8.0399718000132</v>
+        <v>52.988473532288</v>
       </c>
       <c r="S6">
-        <v>0.04613904718571681</v>
+        <v>0.03995727743309427</v>
       </c>
       <c r="T6">
-        <v>0.04613904718571681</v>
+        <v>0.03425135447196886</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.01622471393022</v>
+        <v>2.099392</v>
       </c>
       <c r="H7">
-        <v>2.01622471393022</v>
+        <v>4.198784</v>
       </c>
       <c r="I7">
-        <v>0.4540874163415305</v>
+        <v>0.3767652188062087</v>
       </c>
       <c r="J7">
-        <v>0.4540874163415305</v>
+        <v>0.3035604213192941</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.13080187353046</v>
+        <v>1.1353665</v>
       </c>
       <c r="N7">
-        <v>1.13080187353046</v>
+        <v>2.270733</v>
       </c>
       <c r="O7">
-        <v>0.02881376982107632</v>
+        <v>0.02862361886984934</v>
       </c>
       <c r="P7">
-        <v>0.02881376982107632</v>
+        <v>0.02030209238958422</v>
       </c>
       <c r="Q7">
-        <v>2.279950683970708</v>
+        <v>2.383579347168</v>
       </c>
       <c r="R7">
-        <v>2.279950683970708</v>
+        <v>9.534317388671999</v>
       </c>
       <c r="S7">
-        <v>0.01308397029311211</v>
+        <v>0.01078438402652431</v>
       </c>
       <c r="T7">
-        <v>0.01308397029311211</v>
+        <v>0.00616291171944542</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.811279869075288</v>
+        <v>0.8500033333333333</v>
       </c>
       <c r="H8">
-        <v>0.811279869075288</v>
+        <v>2.55001</v>
       </c>
       <c r="I8">
-        <v>0.1827137506712669</v>
+        <v>0.1525449710532097</v>
       </c>
       <c r="J8">
-        <v>0.1827137506712669</v>
+        <v>0.1843586404941081</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.9995196476458</v>
+        <v>6.013510500000001</v>
       </c>
       <c r="N8">
-        <v>5.9995196476458</v>
+        <v>12.027021</v>
       </c>
       <c r="O8">
-        <v>0.1528727376658653</v>
+        <v>0.1516060519857131</v>
       </c>
       <c r="P8">
-        <v>0.1528727376658653</v>
+        <v>0.1075307803750902</v>
       </c>
       <c r="Q8">
-        <v>4.867289514256703</v>
+        <v>5.111503970035001</v>
       </c>
       <c r="R8">
-        <v>4.867289514256703</v>
+        <v>30.66902382021</v>
       </c>
       <c r="S8">
-        <v>0.02793195127431491</v>
+        <v>0.02312674081165202</v>
       </c>
       <c r="T8">
-        <v>0.02793195127431491</v>
+        <v>0.01982422848122214</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.811279869075288</v>
+        <v>0.8500033333333333</v>
       </c>
       <c r="H9">
-        <v>0.811279869075288</v>
+        <v>2.55001</v>
       </c>
       <c r="I9">
-        <v>0.1827137506712669</v>
+        <v>0.1525449710532097</v>
       </c>
       <c r="J9">
-        <v>0.1827137506712669</v>
+        <v>0.1843586404941081</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.65964195607662</v>
+        <v>1.733960333333333</v>
       </c>
       <c r="N9">
-        <v>1.65964195607662</v>
+        <v>5.201880999999999</v>
       </c>
       <c r="O9">
-        <v>0.04228905383618864</v>
+        <v>0.04371471213636323</v>
       </c>
       <c r="P9">
-        <v>0.04228905383618864</v>
+        <v>0.04650880075359928</v>
       </c>
       <c r="Q9">
-        <v>1.346434108837695</v>
+        <v>1.473872063201111</v>
       </c>
       <c r="R9">
-        <v>1.346434108837695</v>
+        <v>13.26484856881</v>
       </c>
       <c r="S9">
-        <v>0.007726791638749154</v>
+        <v>0.006668459497440925</v>
       </c>
       <c r="T9">
-        <v>0.007726791638749154</v>
+        <v>0.008574299277944912</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.811279869075288</v>
+        <v>0.8500033333333333</v>
       </c>
       <c r="H10">
-        <v>0.811279869075288</v>
+        <v>2.55001</v>
       </c>
       <c r="I10">
-        <v>0.1827137506712669</v>
+        <v>0.1525449710532097</v>
       </c>
       <c r="J10">
-        <v>0.1827137506712669</v>
+        <v>0.1843586404941081</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.3773468155369</v>
+        <v>11.377631</v>
       </c>
       <c r="N10">
-        <v>11.3773468155369</v>
+        <v>34.132893</v>
       </c>
       <c r="O10">
-        <v>0.2899042352078359</v>
+        <v>0.286840393287791</v>
       </c>
       <c r="P10">
-        <v>0.2899042352078359</v>
+        <v>0.3051742090372548</v>
       </c>
       <c r="Q10">
-        <v>9.230212434932922</v>
+        <v>9.671024275436668</v>
       </c>
       <c r="R10">
-        <v>9.230212434932922</v>
+        <v>87.03921847893001</v>
       </c>
       <c r="S10">
-        <v>0.05296949015030884</v>
+        <v>0.04375605949097738</v>
       </c>
       <c r="T10">
-        <v>0.05296949015030884</v>
+        <v>0.05626150229197305</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.811279869075288</v>
+        <v>0.8500033333333333</v>
       </c>
       <c r="H11">
-        <v>0.811279869075288</v>
+        <v>2.55001</v>
       </c>
       <c r="I11">
-        <v>0.1827137506712669</v>
+        <v>0.1525449710532097</v>
       </c>
       <c r="J11">
-        <v>0.1827137506712669</v>
+        <v>0.1843586404941081</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.0902430194445</v>
+        <v>15.19825166666667</v>
       </c>
       <c r="N11">
-        <v>15.0902430194445</v>
+        <v>45.594755</v>
       </c>
       <c r="O11">
-        <v>0.3845119106045286</v>
+        <v>0.3831617043436804</v>
       </c>
       <c r="P11">
-        <v>0.3845119106045286</v>
+        <v>0.4076520350435111</v>
       </c>
       <c r="Q11">
-        <v>12.24241038112921</v>
+        <v>12.91856457750555</v>
       </c>
       <c r="R11">
-        <v>12.24241038112921</v>
+        <v>116.26708119755</v>
       </c>
       <c r="S11">
-        <v>0.0702556133643283</v>
+        <v>0.05844939109780523</v>
       </c>
       <c r="T11">
-        <v>0.0702556133643283</v>
+        <v>0.07515417497527822</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.811279869075288</v>
+        <v>0.8500033333333333</v>
       </c>
       <c r="H12">
-        <v>0.811279869075288</v>
+        <v>2.55001</v>
       </c>
       <c r="I12">
-        <v>0.1827137506712669</v>
+        <v>0.1525449710532097</v>
       </c>
       <c r="J12">
-        <v>0.1827137506712669</v>
+        <v>0.1843586404941081</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.98763676710465</v>
+        <v>4.206652333333333</v>
       </c>
       <c r="N12">
-        <v>3.98763676710465</v>
+        <v>12.619957</v>
       </c>
       <c r="O12">
-        <v>0.1016082928645054</v>
+        <v>0.1060535193766028</v>
       </c>
       <c r="P12">
-        <v>0.1016082928645054</v>
+        <v>0.1128320824009604</v>
       </c>
       <c r="Q12">
-        <v>3.235089434336465</v>
+        <v>3.575668505507778</v>
       </c>
       <c r="R12">
-        <v>3.235089434336465</v>
+        <v>32.18101654957</v>
       </c>
       <c r="S12">
-        <v>0.0185652322885783</v>
+        <v>0.0161779310433949</v>
       </c>
       <c r="T12">
-        <v>0.0185652322885783</v>
+        <v>0.02080156931556025</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.811279869075288</v>
+        <v>0.8500033333333333</v>
       </c>
       <c r="H13">
-        <v>0.811279869075288</v>
+        <v>2.55001</v>
       </c>
       <c r="I13">
-        <v>0.1827137506712669</v>
+        <v>0.1525449710532097</v>
       </c>
       <c r="J13">
-        <v>0.1827137506712669</v>
+        <v>0.1843586404941081</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.13080187353046</v>
+        <v>1.1353665</v>
       </c>
       <c r="N13">
-        <v>1.13080187353046</v>
+        <v>2.270733</v>
       </c>
       <c r="O13">
-        <v>0.02881376982107632</v>
+        <v>0.02862361886984934</v>
       </c>
       <c r="P13">
-        <v>0.02881376982107632</v>
+        <v>0.02030209238958422</v>
       </c>
       <c r="Q13">
-        <v>0.9173967959078819</v>
+        <v>0.9650653095549999</v>
       </c>
       <c r="R13">
-        <v>0.9173967959078819</v>
+        <v>5.79039185733</v>
       </c>
       <c r="S13">
-        <v>0.005264671954987415</v>
+        <v>0.004366389111939276</v>
       </c>
       <c r="T13">
-        <v>0.005264671954987415</v>
+        <v>0.003742866152129525</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.828422212406756</v>
+        <v>0.3447446666666667</v>
       </c>
       <c r="H14">
-        <v>0.828422212406756</v>
+        <v>1.034234</v>
       </c>
       <c r="I14">
-        <v>0.1865744921549144</v>
+        <v>0.06186924584305369</v>
       </c>
       <c r="J14">
-        <v>0.1865744921549144</v>
+        <v>0.07477224567463792</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.9995196476458</v>
+        <v>6.013510500000001</v>
       </c>
       <c r="N14">
-        <v>5.9995196476458</v>
+        <v>12.027021</v>
       </c>
       <c r="O14">
-        <v>0.1528727376658653</v>
+        <v>0.1516060519857131</v>
       </c>
       <c r="P14">
-        <v>0.1528727376658653</v>
+        <v>0.1075307803750902</v>
       </c>
       <c r="Q14">
-        <v>4.970135339880535</v>
+        <v>2.073125672819001</v>
       </c>
       <c r="R14">
-        <v>4.970135339880535</v>
+        <v>12.438754036914</v>
       </c>
       <c r="S14">
-        <v>0.02852215339434028</v>
+        <v>0.009379752101598863</v>
       </c>
       <c r="T14">
-        <v>0.02852215339434028</v>
+        <v>0.008040317927791776</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.828422212406756</v>
+        <v>0.3447446666666667</v>
       </c>
       <c r="H15">
-        <v>0.828422212406756</v>
+        <v>1.034234</v>
       </c>
       <c r="I15">
-        <v>0.1865744921549144</v>
+        <v>0.06186924584305369</v>
       </c>
       <c r="J15">
-        <v>0.1865744921549144</v>
+        <v>0.07477224567463792</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.65964195607662</v>
+        <v>1.733960333333333</v>
       </c>
       <c r="N15">
-        <v>1.65964195607662</v>
+        <v>5.201880999999999</v>
       </c>
       <c r="O15">
-        <v>0.04228905383618864</v>
+        <v>0.04371471213636323</v>
       </c>
       <c r="P15">
-        <v>0.04228905383618864</v>
+        <v>0.04650880075359928</v>
       </c>
       <c r="Q15">
-        <v>1.37488426105607</v>
+        <v>0.5977735771282222</v>
       </c>
       <c r="R15">
-        <v>1.37488426105607</v>
+        <v>5.379962194153999</v>
       </c>
       <c r="S15">
-        <v>0.00789005874319873</v>
+        <v>0.00270459627212298</v>
       </c>
       <c r="T15">
-        <v>0.00789005874319873</v>
+        <v>0.00347756747598091</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.828422212406756</v>
+        <v>0.3447446666666667</v>
       </c>
       <c r="H16">
-        <v>0.828422212406756</v>
+        <v>1.034234</v>
       </c>
       <c r="I16">
-        <v>0.1865744921549144</v>
+        <v>0.06186924584305369</v>
       </c>
       <c r="J16">
-        <v>0.1865744921549144</v>
+        <v>0.07477224567463792</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.3773468155369</v>
+        <v>11.377631</v>
       </c>
       <c r="N16">
-        <v>11.3773468155369</v>
+        <v>34.132893</v>
       </c>
       <c r="O16">
-        <v>0.2899042352078359</v>
+        <v>0.286840393287791</v>
       </c>
       <c r="P16">
-        <v>0.2899042352078359</v>
+        <v>0.3051742090372548</v>
       </c>
       <c r="Q16">
-        <v>9.425246820246038</v>
+        <v>3.922377606551334</v>
       </c>
       <c r="R16">
-        <v>9.425246820246038</v>
+        <v>35.30139845896201</v>
       </c>
       <c r="S16">
-        <v>0.05408873545746084</v>
+        <v>0.01774659881004055</v>
       </c>
       <c r="T16">
-        <v>0.05408873545746084</v>
+        <v>0.02281856093169692</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.828422212406756</v>
+        <v>0.3447446666666667</v>
       </c>
       <c r="H17">
-        <v>0.828422212406756</v>
+        <v>1.034234</v>
       </c>
       <c r="I17">
-        <v>0.1865744921549144</v>
+        <v>0.06186924584305369</v>
       </c>
       <c r="J17">
-        <v>0.1865744921549144</v>
+        <v>0.07477224567463792</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.0902430194445</v>
+        <v>15.19825166666667</v>
       </c>
       <c r="N17">
-        <v>15.0902430194445</v>
+        <v>45.594755</v>
       </c>
       <c r="O17">
-        <v>0.3845119106045286</v>
+        <v>0.3831617043436804</v>
       </c>
       <c r="P17">
-        <v>0.3845119106045286</v>
+        <v>0.4076520350435111</v>
       </c>
       <c r="Q17">
-        <v>12.50109250792382</v>
+        <v>5.239516204741111</v>
       </c>
       <c r="R17">
-        <v>12.50109250792382</v>
+        <v>47.15564584267</v>
       </c>
       <c r="S17">
-        <v>0.07174011444855577</v>
+        <v>0.02370592568368261</v>
       </c>
       <c r="T17">
-        <v>0.07174011444855577</v>
+        <v>0.03048105811403952</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.828422212406756</v>
+        <v>0.3447446666666667</v>
       </c>
       <c r="H18">
-        <v>0.828422212406756</v>
+        <v>1.034234</v>
       </c>
       <c r="I18">
-        <v>0.1865744921549144</v>
+        <v>0.06186924584305369</v>
       </c>
       <c r="J18">
-        <v>0.1865744921549144</v>
+        <v>0.07477224567463792</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.98763676710465</v>
+        <v>4.206652333333333</v>
       </c>
       <c r="N18">
-        <v>3.98763676710465</v>
+        <v>12.619957</v>
       </c>
       <c r="O18">
-        <v>0.1016082928645054</v>
+        <v>0.1060535193766028</v>
       </c>
       <c r="P18">
-        <v>0.1016082928645054</v>
+        <v>0.1128320824009604</v>
       </c>
       <c r="Q18">
-        <v>3.303446872879358</v>
+        <v>1.450220956437556</v>
       </c>
       <c r="R18">
-        <v>3.303446872879358</v>
+        <v>13.051988607938</v>
       </c>
       <c r="S18">
-        <v>0.0189575156399229</v>
+        <v>0.0065614512628321</v>
       </c>
       <c r="T18">
-        <v>0.0189575156399229</v>
+        <v>0.008436708185265604</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.828422212406756</v>
+        <v>0.3447446666666667</v>
       </c>
       <c r="H19">
-        <v>0.828422212406756</v>
+        <v>1.034234</v>
       </c>
       <c r="I19">
-        <v>0.1865744921549144</v>
+        <v>0.06186924584305369</v>
       </c>
       <c r="J19">
-        <v>0.1865744921549144</v>
+        <v>0.07477224567463792</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.13080187353046</v>
+        <v>1.1353665</v>
       </c>
       <c r="N19">
-        <v>1.13080187353046</v>
+        <v>2.270733</v>
       </c>
       <c r="O19">
-        <v>0.02881376982107632</v>
+        <v>0.02862361886984934</v>
       </c>
       <c r="P19">
-        <v>0.02881376982107632</v>
+        <v>0.02030209238958422</v>
       </c>
       <c r="Q19">
-        <v>0.9367813898638082</v>
+        <v>0.391411545587</v>
       </c>
       <c r="R19">
-        <v>0.9367813898638082</v>
+        <v>2.348469273522</v>
       </c>
       <c r="S19">
-        <v>0.005375914471435914</v>
+        <v>0.001770921712776579</v>
       </c>
       <c r="T19">
-        <v>0.005375914471435914</v>
+        <v>0.001518033039863188</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.784241862363901</v>
+        <v>0.658556</v>
       </c>
       <c r="H20">
-        <v>0.784241862363901</v>
+        <v>1.975668</v>
       </c>
       <c r="I20">
-        <v>0.1766243408322882</v>
+        <v>0.1181870729411856</v>
       </c>
       <c r="J20">
-        <v>0.1766243408322882</v>
+        <v>0.1428353090959305</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.9995196476458</v>
+        <v>6.013510500000001</v>
       </c>
       <c r="N20">
-        <v>5.9995196476458</v>
+        <v>12.027021</v>
       </c>
       <c r="O20">
-        <v>0.1528727376658653</v>
+        <v>0.1516060519857131</v>
       </c>
       <c r="P20">
-        <v>0.1528727376658653</v>
+        <v>0.1075307803750902</v>
       </c>
       <c r="Q20">
-        <v>4.705074461758557</v>
+        <v>3.960233420838001</v>
       </c>
       <c r="R20">
-        <v>4.705074461758557</v>
+        <v>23.76140052502801</v>
       </c>
       <c r="S20">
-        <v>0.02700104652146078</v>
+        <v>0.01791787552436066</v>
       </c>
       <c r="T20">
-        <v>0.02700104652146078</v>
+        <v>0.01535919225220262</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.784241862363901</v>
+        <v>0.658556</v>
       </c>
       <c r="H21">
-        <v>0.784241862363901</v>
+        <v>1.975668</v>
       </c>
       <c r="I21">
-        <v>0.1766243408322882</v>
+        <v>0.1181870729411856</v>
       </c>
       <c r="J21">
-        <v>0.1766243408322882</v>
+        <v>0.1428353090959305</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.65964195607662</v>
+        <v>1.733960333333333</v>
       </c>
       <c r="N21">
-        <v>1.65964195607662</v>
+        <v>5.201880999999999</v>
       </c>
       <c r="O21">
-        <v>0.04228905383618864</v>
+        <v>0.04371471213636323</v>
       </c>
       <c r="P21">
-        <v>0.04228905383618864</v>
+        <v>0.04650880075359928</v>
       </c>
       <c r="Q21">
-        <v>1.301560698490796</v>
+        <v>1.141909981278667</v>
       </c>
       <c r="R21">
-        <v>1.301560698490796</v>
+        <v>10.277189831508</v>
       </c>
       <c r="S21">
-        <v>0.007469276258237967</v>
+        <v>0.005166513871863294</v>
       </c>
       <c r="T21">
-        <v>0.007469276258237967</v>
+        <v>0.006643098931321396</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.784241862363901</v>
+        <v>0.658556</v>
       </c>
       <c r="H22">
-        <v>0.784241862363901</v>
+        <v>1.975668</v>
       </c>
       <c r="I22">
-        <v>0.1766243408322882</v>
+        <v>0.1181870729411856</v>
       </c>
       <c r="J22">
-        <v>0.1766243408322882</v>
+        <v>0.1428353090959305</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.3773468155369</v>
+        <v>11.377631</v>
       </c>
       <c r="N22">
-        <v>11.3773468155369</v>
+        <v>34.132893</v>
       </c>
       <c r="O22">
-        <v>0.2899042352078359</v>
+        <v>0.286840393287791</v>
       </c>
       <c r="P22">
-        <v>0.2899042352078359</v>
+        <v>0.3051742090372548</v>
       </c>
       <c r="Q22">
-        <v>8.922591655376657</v>
+        <v>7.492807160836001</v>
       </c>
       <c r="R22">
-        <v>8.922591655376657</v>
+        <v>67.43526444752401</v>
       </c>
       <c r="S22">
-        <v>0.05120414444807265</v>
+        <v>0.03390082648398254</v>
       </c>
       <c r="T22">
-        <v>0.05120414444807265</v>
+        <v>0.04358965247594238</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.784241862363901</v>
+        <v>0.658556</v>
       </c>
       <c r="H23">
-        <v>0.784241862363901</v>
+        <v>1.975668</v>
       </c>
       <c r="I23">
-        <v>0.1766243408322882</v>
+        <v>0.1181870729411856</v>
       </c>
       <c r="J23">
-        <v>0.1766243408322882</v>
+        <v>0.1428353090959305</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.0902430194445</v>
+        <v>15.19825166666667</v>
       </c>
       <c r="N23">
-        <v>15.0902430194445</v>
+        <v>45.594755</v>
       </c>
       <c r="O23">
-        <v>0.3845119106045286</v>
+        <v>0.3831617043436804</v>
       </c>
       <c r="P23">
-        <v>0.3845119106045286</v>
+        <v>0.4076520350435111</v>
       </c>
       <c r="Q23">
-        <v>11.83440028909301</v>
+        <v>10.00889982459333</v>
       </c>
       <c r="R23">
-        <v>11.83440028909301</v>
+        <v>90.08009842134001</v>
       </c>
       <c r="S23">
-        <v>0.06791416275268858</v>
+        <v>0.04528476029953556</v>
       </c>
       <c r="T23">
-        <v>0.06791416275268858</v>
+        <v>0.05822710442902498</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.784241862363901</v>
+        <v>0.658556</v>
       </c>
       <c r="H24">
-        <v>0.784241862363901</v>
+        <v>1.975668</v>
       </c>
       <c r="I24">
-        <v>0.1766243408322882</v>
+        <v>0.1181870729411856</v>
       </c>
       <c r="J24">
-        <v>0.1766243408322882</v>
+        <v>0.1428353090959305</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.98763676710465</v>
+        <v>4.206652333333333</v>
       </c>
       <c r="N24">
-        <v>3.98763676710465</v>
+        <v>12.619957</v>
       </c>
       <c r="O24">
-        <v>0.1016082928645054</v>
+        <v>0.1060535193766028</v>
       </c>
       <c r="P24">
-        <v>0.1016082928645054</v>
+        <v>0.1128320824009604</v>
       </c>
       <c r="Q24">
-        <v>3.127271684664916</v>
+        <v>2.770316134030667</v>
       </c>
       <c r="R24">
-        <v>3.127271684664916</v>
+        <v>24.932845206276</v>
       </c>
       <c r="S24">
-        <v>0.01794649775028736</v>
+        <v>0.01253415503023201</v>
       </c>
       <c r="T24">
-        <v>0.01794649775028736</v>
+        <v>0.01611640536567868</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.658556</v>
+      </c>
+      <c r="H25">
+        <v>1.975668</v>
+      </c>
+      <c r="I25">
+        <v>0.1181870729411856</v>
+      </c>
+      <c r="J25">
+        <v>0.1428353090959305</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.1353665</v>
+      </c>
+      <c r="N25">
+        <v>2.270733</v>
+      </c>
+      <c r="O25">
+        <v>0.02862361886984934</v>
+      </c>
+      <c r="P25">
+        <v>0.02030209238958422</v>
+      </c>
+      <c r="Q25">
+        <v>0.747702420774</v>
+      </c>
+      <c r="R25">
+        <v>4.486214524644001</v>
+      </c>
+      <c r="S25">
+        <v>0.003382941731211582</v>
+      </c>
+      <c r="T25">
+        <v>0.002899855641760399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.8341876666666668</v>
+      </c>
+      <c r="H26">
+        <v>2.502563</v>
+      </c>
+      <c r="I26">
+        <v>0.1497066287559005</v>
+      </c>
+      <c r="J26">
+        <v>0.1809283541754176</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.013510500000001</v>
+      </c>
+      <c r="N26">
+        <v>12.027021</v>
+      </c>
+      <c r="O26">
+        <v>0.1516060519857131</v>
+      </c>
+      <c r="P26">
+        <v>0.1075307803750902</v>
+      </c>
+      <c r="Q26">
+        <v>5.016396292470501</v>
+      </c>
+      <c r="R26">
+        <v>30.09837775482301</v>
+      </c>
+      <c r="S26">
+        <v>0.0226964309417729</v>
+      </c>
+      <c r="T26">
+        <v>0.01945536711646336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.8341876666666668</v>
+      </c>
+      <c r="H27">
+        <v>2.502563</v>
+      </c>
+      <c r="I27">
+        <v>0.1497066287559005</v>
+      </c>
+      <c r="J27">
+        <v>0.1809283541754176</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.733960333333333</v>
+      </c>
+      <c r="N27">
+        <v>5.201880999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.04371471213636323</v>
+      </c>
+      <c r="P27">
+        <v>0.04650880075359928</v>
+      </c>
+      <c r="Q27">
+        <v>1.446448324555889</v>
+      </c>
+      <c r="R27">
+        <v>13.018034921003</v>
+      </c>
+      <c r="S27">
+        <v>0.006544382180969588</v>
+      </c>
+      <c r="T27">
+        <v>0.008414760775021141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.8341876666666668</v>
+      </c>
+      <c r="H28">
+        <v>2.502563</v>
+      </c>
+      <c r="I28">
+        <v>0.1497066287559005</v>
+      </c>
+      <c r="J28">
+        <v>0.1809283541754176</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>11.377631</v>
+      </c>
+      <c r="N28">
+        <v>34.132893</v>
+      </c>
+      <c r="O28">
+        <v>0.286840393287791</v>
+      </c>
+      <c r="P28">
+        <v>0.3051742090372548</v>
+      </c>
+      <c r="Q28">
+        <v>9.491079456084336</v>
+      </c>
+      <c r="R28">
+        <v>85.41971510475902</v>
+      </c>
+      <c r="S28">
+        <v>0.04294190827013182</v>
+      </c>
+      <c r="T28">
+        <v>0.05521466737789537</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.8341876666666668</v>
+      </c>
+      <c r="H29">
+        <v>2.502563</v>
+      </c>
+      <c r="I29">
+        <v>0.1497066287559005</v>
+      </c>
+      <c r="J29">
+        <v>0.1809283541754176</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>15.19825166666667</v>
+      </c>
+      <c r="N29">
+        <v>45.594755</v>
+      </c>
+      <c r="O29">
+        <v>0.3831617043436804</v>
+      </c>
+      <c r="P29">
+        <v>0.4076520350435111</v>
+      </c>
+      <c r="Q29">
+        <v>12.67819409522945</v>
+      </c>
+      <c r="R29">
+        <v>114.103746857065</v>
+      </c>
+      <c r="S29">
+        <v>0.05736184702565746</v>
+      </c>
+      <c r="T29">
+        <v>0.07375581177668214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.8341876666666668</v>
+      </c>
+      <c r="H30">
+        <v>2.502563</v>
+      </c>
+      <c r="I30">
+        <v>0.1497066287559005</v>
+      </c>
+      <c r="J30">
+        <v>0.1809283541754176</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>4.206652333333333</v>
+      </c>
+      <c r="N30">
+        <v>12.619957</v>
+      </c>
+      <c r="O30">
+        <v>0.1060535193766028</v>
+      </c>
+      <c r="P30">
+        <v>0.1128320824009604</v>
+      </c>
+      <c r="Q30">
+        <v>3.509137494421223</v>
+      </c>
+      <c r="R30">
+        <v>31.582237449791</v>
+      </c>
+      <c r="S30">
+        <v>0.01587691485356978</v>
+      </c>
+      <c r="T30">
+        <v>0.02041452296699088</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.8341876666666668</v>
+      </c>
+      <c r="H31">
+        <v>2.502563</v>
+      </c>
+      <c r="I31">
+        <v>0.1497066287559005</v>
+      </c>
+      <c r="J31">
+        <v>0.1809283541754176</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.1353665</v>
+      </c>
+      <c r="N31">
+        <v>2.270733</v>
+      </c>
+      <c r="O31">
+        <v>0.02862361886984934</v>
+      </c>
+      <c r="P31">
+        <v>0.02030209238958422</v>
+      </c>
+      <c r="Q31">
+        <v>0.9471087314465001</v>
+      </c>
+      <c r="R31">
+        <v>5.682652388679</v>
+      </c>
+      <c r="S31">
+        <v>0.004285145483798923</v>
+      </c>
+      <c r="T31">
+        <v>0.003673224162364745</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.7852654999999999</v>
+      </c>
+      <c r="H32">
+        <v>1.570531</v>
+      </c>
+      <c r="I32">
+        <v>0.1409268626004419</v>
+      </c>
+      <c r="J32">
+        <v>0.1135450292406116</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>6.013510500000001</v>
+      </c>
+      <c r="N32">
+        <v>12.027021</v>
+      </c>
+      <c r="O32">
+        <v>0.1516060519857131</v>
+      </c>
+      <c r="P32">
+        <v>0.1075307803750902</v>
+      </c>
+      <c r="Q32">
+        <v>4.72220232953775</v>
+      </c>
+      <c r="R32">
+        <v>18.888809318151</v>
+      </c>
+      <c r="S32">
+        <v>0.02136536525758604</v>
+      </c>
+      <c r="T32">
+        <v>0.0122095856019554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.7852654999999999</v>
+      </c>
+      <c r="H33">
+        <v>1.570531</v>
+      </c>
+      <c r="I33">
+        <v>0.1409268626004419</v>
+      </c>
+      <c r="J33">
+        <v>0.1135450292406116</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.733960333333333</v>
+      </c>
+      <c r="N33">
+        <v>5.201880999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.04371471213636323</v>
+      </c>
+      <c r="P33">
+        <v>0.04650880075359928</v>
+      </c>
+      <c r="Q33">
+        <v>1.361619228135166</v>
+      </c>
+      <c r="R33">
+        <v>8.169715368810998</v>
+      </c>
+      <c r="S33">
+        <v>0.00616057723085913</v>
+      </c>
+      <c r="T33">
+        <v>0.005280843141513211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.7852654999999999</v>
+      </c>
+      <c r="H34">
+        <v>1.570531</v>
+      </c>
+      <c r="I34">
+        <v>0.1409268626004419</v>
+      </c>
+      <c r="J34">
+        <v>0.1135450292406116</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>11.377631</v>
+      </c>
+      <c r="N34">
+        <v>34.132893</v>
+      </c>
+      <c r="O34">
+        <v>0.286840393287791</v>
+      </c>
+      <c r="P34">
+        <v>0.3051742090372548</v>
+      </c>
+      <c r="Q34">
+        <v>8.9344610960305</v>
+      </c>
+      <c r="R34">
+        <v>53.606766576183</v>
+      </c>
+      <c r="S34">
+        <v>0.04042351669312524</v>
+      </c>
+      <c r="T34">
+        <v>0.03465101448861563</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.784241862363901</v>
-      </c>
-      <c r="H25">
-        <v>0.784241862363901</v>
-      </c>
-      <c r="I25">
-        <v>0.1766243408322882</v>
-      </c>
-      <c r="J25">
-        <v>0.1766243408322882</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.13080187353046</v>
-      </c>
-      <c r="N25">
-        <v>1.13080187353046</v>
-      </c>
-      <c r="O25">
-        <v>0.02881376982107632</v>
-      </c>
-      <c r="P25">
-        <v>0.02881376982107632</v>
-      </c>
-      <c r="Q25">
-        <v>0.8868221672621164</v>
-      </c>
-      <c r="R25">
-        <v>0.8868221672621164</v>
-      </c>
-      <c r="S25">
-        <v>0.005089213101540885</v>
-      </c>
-      <c r="T25">
-        <v>0.005089213101540885</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.7852654999999999</v>
+      </c>
+      <c r="H35">
+        <v>1.570531</v>
+      </c>
+      <c r="I35">
+        <v>0.1409268626004419</v>
+      </c>
+      <c r="J35">
+        <v>0.1135450292406116</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>15.19825166666667</v>
+      </c>
+      <c r="N35">
+        <v>45.594755</v>
+      </c>
+      <c r="O35">
+        <v>0.3831617043436804</v>
+      </c>
+      <c r="P35">
+        <v>0.4076520350435111</v>
+      </c>
+      <c r="Q35">
+        <v>11.93466269415083</v>
+      </c>
+      <c r="R35">
+        <v>71.607976164905</v>
+      </c>
+      <c r="S35">
+        <v>0.05399777686179297</v>
+      </c>
+      <c r="T35">
+        <v>0.04628686223901031</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.7852654999999999</v>
+      </c>
+      <c r="H36">
+        <v>1.570531</v>
+      </c>
+      <c r="I36">
+        <v>0.1409268626004419</v>
+      </c>
+      <c r="J36">
+        <v>0.1135450292406116</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>4.206652333333333</v>
+      </c>
+      <c r="N36">
+        <v>12.619957</v>
+      </c>
+      <c r="O36">
+        <v>0.1060535193766028</v>
+      </c>
+      <c r="P36">
+        <v>0.1128320824009604</v>
+      </c>
+      <c r="Q36">
+        <v>3.303338947861167</v>
+      </c>
+      <c r="R36">
+        <v>19.820033687167</v>
+      </c>
+      <c r="S36">
+        <v>0.01494578975347981</v>
+      </c>
+      <c r="T36">
+        <v>0.01281152209549616</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.7852654999999999</v>
+      </c>
+      <c r="H37">
+        <v>1.570531</v>
+      </c>
+      <c r="I37">
+        <v>0.1409268626004419</v>
+      </c>
+      <c r="J37">
+        <v>0.1135450292406116</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.1353665</v>
+      </c>
+      <c r="N37">
+        <v>2.270733</v>
+      </c>
+      <c r="O37">
+        <v>0.02862361886984934</v>
+      </c>
+      <c r="P37">
+        <v>0.02030209238958422</v>
+      </c>
+      <c r="Q37">
+        <v>0.8915641423057499</v>
+      </c>
+      <c r="R37">
+        <v>3.566256569222999</v>
+      </c>
+      <c r="S37">
+        <v>0.004033836803598673</v>
+      </c>
+      <c r="T37">
+        <v>0.00230520167402094</v>
       </c>
     </row>
   </sheetData>
